--- a/const_ch/model_acc_epochs.xlsx
+++ b/const_ch/model_acc_epochs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickowens/Documents/mai_local/const_ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24947E21-751D-D044-AC30-C04AFE4D5157}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EDB29-8E94-5747-902D-FAE4167D0165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{BE73CDBB-EAFE-9445-AB00-026DDD90FE62}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{BE73CDBB-EAFE-9445-AB00-026DDD90FE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Frequency (THz)</t>
+  </si>
+  <si>
+    <t>Ephocs to 5% Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 Epochs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation % error at </t>
+  </si>
+  <si>
+    <t>Channel Number</t>
+  </si>
+  <si>
+    <t>Changed Training Data to include 0 values</t>
+  </si>
+  <si>
+    <t>750 Epochs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -52,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -60,12 +86,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +466,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6451F3-A296-7D45-9E4B-C93FCC5B8753}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>191.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>192.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>192.3</v>
+      </c>
+      <c r="C10">
+        <v>271</v>
+      </c>
+      <c r="D10">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>192.4</v>
+      </c>
+      <c r="C11">
+        <v>287</v>
+      </c>
+      <c r="D11">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>192.5</v>
+      </c>
+      <c r="C12">
+        <v>261</v>
+      </c>
+      <c r="D12">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>192.6</v>
+      </c>
+      <c r="C13">
+        <v>258</v>
+      </c>
+      <c r="D13">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>192.7</v>
+      </c>
+      <c r="C14">
+        <v>247</v>
+      </c>
+      <c r="D14">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>192.8</v>
+      </c>
+      <c r="C15">
+        <v>277</v>
+      </c>
+      <c r="D15">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>192.9</v>
+      </c>
+      <c r="C16">
+        <v>248</v>
+      </c>
+      <c r="D16">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>193</v>
+      </c>
+      <c r="C17">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>193.1</v>
+      </c>
+      <c r="C18">
+        <v>310</v>
+      </c>
+      <c r="D18">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>193.2</v>
+      </c>
+      <c r="C19">
+        <v>272</v>
+      </c>
+      <c r="D19">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>193.4</v>
+      </c>
+      <c r="C21">
+        <v>234</v>
+      </c>
+      <c r="D21">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>193.5</v>
+      </c>
+      <c r="C22">
+        <v>240</v>
+      </c>
+      <c r="D22">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>193.6</v>
+      </c>
+      <c r="C23">
+        <v>265</v>
+      </c>
+      <c r="D23">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>193.7</v>
+      </c>
+      <c r="C25">
+        <v>346</v>
+      </c>
+      <c r="D25">
+        <v>3.26</v>
+      </c>
+      <c r="E25">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>193.8</v>
+      </c>
+      <c r="C26">
+        <v>382</v>
+      </c>
+      <c r="D26">
+        <v>3.65</v>
+      </c>
+      <c r="E26">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>193.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>194.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>194.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>194.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>194.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>194.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>194.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>195.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>195.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3">
+        <v>195.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3">
+        <v>195.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3">
+        <v>195.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <v>195.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>